--- a/biology/Zoologie/Hamadryas_guatemalena/Hamadryas_guatemalena.xlsx
+++ b/biology/Zoologie/Hamadryas_guatemalena/Hamadryas_guatemalena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas guatemalena est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas guatemalena a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Ageronia guatemalena.
-Synonyme : Peridroma guatemalena ; Godman &amp; Salvin, [1883][1].
-Sous-espèces
-Hamadryas guatemalena guatemalena présent au Guatemala et au Mexique.
-Hamadryas guatemalena marmarice (Fruhstorfer, 1916); présent au Mexique et au Texas[1].
-Nom vernaculaire
-Hamadryas guatemalena se nomme Guatemalan Calico ou Guatemalan Cracker en anglais[1],[2].
+Synonyme : Peridroma guatemalena ; Godman &amp; Salvin, .
 </t>
         </is>
       </c>
@@ -545,16 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas guatemalena est un papillon d'une envergure de 76 mm à 98 mm, au dessus marbré de marron, de gris et de nacré[3]. Il présente une marque rouge en S au 1/3 interne du bord costal des ailes antérieures et une ligne submarginale d'ocelles, discrets aux ailes antérieures, marron, cernés d'argent et pupillés de nacré aux ailes postérieures.
-Le revers est crème avec la même marque rouge en S au 1/3 interne du bord costal des ailes antérieures et à partir d'elle une couleur marron largement taché de crème. Les ailes postérieures sont crème avec une ligne submarginale de taches blanches cernées de marron et une marge marron tachée de blanc.
-Chenille
-Les œufs sont blancs et donnent des chenilles qui deviennent noires tachées de jaune et développent de nombreuses épines.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hamadryas guatemalena guatemalena présent au Guatemala et au Mexique.
+Hamadryas guatemalena marmarice (Fruhstorfer, 1916); présent au Mexique et au Texas.</t>
         </is>
       </c>
     </row>
@@ -579,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas guatemalena vole toute l'année en zone tropicale en plusieurs générations, mais uniquement en août dans le sud du Texas[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Dalechampia et des Tragia (Euphorbiaceae) [1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas guatemalena se nomme Guatemalan Calico ou Guatemalan Cracker en anglais,.
 </t>
         </is>
       </c>
@@ -612,18 +628,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas guatemalena est un papillon d'une envergure de 76 mm à 98 mm, au dessus marbré de marron, de gris et de nacré. Il présente une marque rouge en S au 1/3 interne du bord costal des ailes antérieures et une ligne submarginale d'ocelles, discrets aux ailes antérieures, marron, cernés d'argent et pupillés de nacré aux ailes postérieures.
+Le revers est crème avec la même marque rouge en S au 1/3 interne du bord costal des ailes antérieures et à partir d'elle une couleur marron largement taché de crème. Les ailes postérieures sont crème avec une ligne submarginale de taches blanches cernées de marron et une marge marron tachée de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont blancs et donnent des chenilles qui deviennent noires tachées de jaune et développent de nombreuses épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas guatemalena vole toute l'année en zone tropicale en plusieurs générations, mais uniquement en août dans le sud du Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Dalechampia et des Tragia (Euphorbiaceae) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas guatemalena est présent au Guatemala, au Costa Rica, au Mexique et dans le sud du Texas[1],[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas guatemalena est présent au Guatemala, au Costa Rica, au Mexique et dans le sud du Texas,.
 Sur les autres projets Wikimedia :
 Hamadryas guatemalena, sur Wikimedia CommonsHamadryas guatemalena, sur Wikispecies
-Biotope
-Hamadryas guatemalena réside dans les vallées, en forêt.
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas guatemalena réside dans les vallées, en forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_guatemalena</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
